--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>NUMBER</t>
   </si>
@@ -153,6 +153,36 @@
   </si>
   <si>
     <t>0 hours, -7 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>9:45 AM</t>
+  </si>
+  <si>
+    <t>W92181</t>
+  </si>
+  <si>
+    <t>(LTN)</t>
+  </si>
+  <si>
+    <t>(G-WUKF)</t>
+  </si>
+  <si>
+    <t>9:44 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>10:50 AM</t>
+  </si>
+  <si>
+    <t>(EI-DYB)</t>
+  </si>
+  <si>
+    <t>11:10 AM</t>
   </si>
 </sst>
 </file>
@@ -197,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -386,6 +416,80 @@
       </c>
       <c r="M5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="M7" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>NUMBER</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>11:10 AM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIO)</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -8 minutes</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +505,43 @@
       </c>
       <c r="M7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M8" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>NUMBER</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>0 hours, -8 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>1:00 PM</t>
+  </si>
+  <si>
+    <t>(HA-LYR)</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 3 minutes</t>
   </si>
 </sst>
 </file>
@@ -242,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -542,6 +557,43 @@
       </c>
       <c r="M8" s="0"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M9" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>NUMBER</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>0 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>4:10 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -594,6 +603,43 @@
       </c>
       <c r="M9" s="0"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="M10" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>NUMBER</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>0 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DYN)</t>
+  </si>
+  <si>
+    <t>5:18 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 43 minutes</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -640,6 +649,43 @@
       </c>
       <c r="M10" s="0"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="M11" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>NUMBER</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>0 hours, 43 minutes</t>
+  </si>
+  <si>
+    <t>6:21 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -9 minutes</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -686,6 +692,43 @@
       </c>
       <c r="M11" s="0"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M12" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>NUMBER</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>0 hours, -9 minutes</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>(HA-LPK)</t>
+  </si>
+  <si>
+    <t>12:49 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -11 minutes</t>
   </si>
 </sst>
 </file>
@@ -281,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -729,6 +741,43 @@
       </c>
       <c r="M12" s="0"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="M13" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>NUMBER</t>
   </si>
@@ -249,6 +249,36 @@
   </si>
   <si>
     <t>0 hours, -11 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>8:09 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 39 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>A21N</t>
+  </si>
+  <si>
+    <t>(HA-LZO)</t>
+  </si>
+  <si>
+    <t>2:22 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 22 minutes</t>
   </si>
 </sst>
 </file>
@@ -293,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -778,6 +808,80 @@
       </c>
       <c r="M13" s="0"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>NUMBER</t>
   </si>
@@ -251,34 +251,64 @@
     <t>0 hours, -11 minutes</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT (Retro Livery) </t>
-  </si>
-  <si>
-    <t>(SP-LIM)</t>
-  </si>
-  <si>
-    <t>8:09 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 39 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>A21N</t>
-  </si>
-  <si>
-    <t>(HA-LZO)</t>
-  </si>
-  <si>
-    <t>2:22 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 22 minutes</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>(G-WUKD)</t>
+  </si>
+  <si>
+    <t>4:44 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 34 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EGB)</t>
+  </si>
+  <si>
+    <t>6:09 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIL)</t>
+  </si>
+  <si>
+    <t>6:27 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>9:46 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DLH)</t>
+  </si>
+  <si>
+    <t>11:08 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>(HA-LWV)</t>
+  </si>
+  <si>
+    <t>12:56 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
   </si>
 </sst>
 </file>
@@ -323,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -816,32 +846,32 @@
         <v>79</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="H14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s" s="0">
+      <c r="J14" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>82</v>
       </c>
       <c r="K14" s="0"/>
       <c r="L14" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="0"/>
     </row>
@@ -850,37 +880,222 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>87</v>
       </c>
       <c r="K15" s="0"/>
       <c r="L15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="M15" s="0"/>
+      <c r="C17" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="M20" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/SZY_Departures.xlsx
+++ b/DataBase/SZY_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>NUMBER</t>
   </si>
@@ -309,6 +309,30 @@
   </si>
   <si>
     <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>4:33 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 23 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EGD)</t>
+  </si>
+  <si>
+    <t>5:16 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
   </si>
 </sst>
 </file>
@@ -353,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1097,6 +1121,117 @@
       </c>
       <c r="M20" s="0"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
